--- a/ApolloQA/Data/RatingManual/GA/VA00053.SeatingCapacityFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00053.SeatingCapacityFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00053.SeatingCapacityFactors" sheetId="1" r:id="R382074a626214def"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00053.SeatingCapacityFactors" sheetId="1" r:id="R4248202222774521"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -73,7 +73,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1003</x:v>
+        <x:v>1.3539</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -84,7 +84,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>2.5231</x:v>
+        <x:v>1.3539</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -95,7 +95,7 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>3.0466</x:v>
+        <x:v>1.3539</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
